--- a/tutorial resources/@Tutorial genie_search_api_test.xlsx
+++ b/tutorial resources/@Tutorial genie_search_api_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\genie-search-resources\tutorial resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\genie-search-resources\tutorial resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7F5E77-5CA4-4260-B549-C706B9D2AD87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE4E2EC-6839-4AD9-9462-F11EFBDB4218}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3495" yWindow="3465" windowWidth="11895" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorial" sheetId="1" r:id="rId1"/>
@@ -941,91 +941,7 @@
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="103">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="97">
     <dxf>
       <font>
         <b val="0"/>
@@ -1518,6 +1434,18 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
@@ -2009,25 +1937,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29E0F094-9EC4-4D9A-ADE8-C9FACA7F8C79}" name="Atividades" displayName="Atividades" ref="B2:L138" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29E0F094-9EC4-4D9A-ADE8-C9FACA7F8C79}" name="Atividades" displayName="Atividades" ref="B2:L138" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="B2:L138" xr:uid="{0F785D68-BC43-40B4-B7B2-C9ED4DD23256}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:L138">
     <sortCondition ref="D2:D138"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{EE3B0279-79FA-4F14-BE52-C2A075355689}" name="Etapa" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{2C41BA25-1AB2-4504-BB10-63BD6EC49610}" name="St" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{D86A4013-2747-47D1-8111-7D6905558CC1}" name="Nr" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{FC804BBD-7208-4928-A61B-18C9A30A44A0}" name="Atividade" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{1F844946-5C34-4481-8A1D-52378EE3AF89}" name="Descrição" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{6B22BEDC-E2CF-44C0-85F6-04A14CA03A98}" name="Print" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{C153ED0B-F358-453D-A4D0-4CC1D55803BB}" name="Link" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{EE3B0279-79FA-4F14-BE52-C2A075355689}" name="Etapa" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{2C41BA25-1AB2-4504-BB10-63BD6EC49610}" name="St" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{D86A4013-2747-47D1-8111-7D6905558CC1}" name="Nr" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{FC804BBD-7208-4928-A61B-18C9A30A44A0}" name="Atividade" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{1F844946-5C34-4481-8A1D-52378EE3AF89}" name="Descrição" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{6B22BEDC-E2CF-44C0-85F6-04A14CA03A98}" name="Print" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{C153ED0B-F358-453D-A4D0-4CC1D55803BB}" name="Link" dataDxfId="14">
       <calculatedColumnFormula>IF(OR(Atividades[[#This Row],[Root]]&lt;&gt;"",Atividades[[#This Row],[Path]]&lt;&gt;"",Atividades[[#This Row],[Arquivo]]&lt;&gt;""),HYPERLINK(IF(Atividades[[#This Row],[Root]]&lt;&gt;"",VLOOKUP(Atividades[[#This Row],[Root]],Root[],3,FALSE),"")&amp;IF(Atividades[[#This Row],[Path]]&lt;&gt;"",IF(Atividades[[#This Row],[Root]]&lt;&gt;"","\","")&amp;Atividades[[#This Row],[Path]],"")&amp;IF(Atividades[[#This Row],[Arquivo]]&lt;&gt;"","\"&amp;Atividades[[#This Row],[Arquivo]],""),"abrir"),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{B6DA9F8F-4317-4E54-A1B6-E64E891B2151}" name="Root" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{F2BB27A5-32B0-4453-86CF-2CA8D2087C98}" name="Path" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{3093DDD6-59C5-4123-901F-B0FD928BC201}" name="Arquivo" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{53C2210A-CB38-41C5-BF2F-81FB905E1037}" name="Etapa2" dataDxfId="17">
+    <tableColumn id="10" xr3:uid="{B6DA9F8F-4317-4E54-A1B6-E64E891B2151}" name="Root" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{F2BB27A5-32B0-4453-86CF-2CA8D2087C98}" name="Path" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{3093DDD6-59C5-4123-901F-B0FD928BC201}" name="Arquivo" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{53C2210A-CB38-41C5-BF2F-81FB905E1037}" name="Etapa2" dataDxfId="10">
       <calculatedColumnFormula>LEFT(VLOOKUP(Atividades[[#This Row],[Etapa]],Etapas[#All],3,FALSE),22) &amp; "..."</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2036,28 +1964,28 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{718782BA-4D9D-4262-AF8F-6B1ECEEF5757}" name="Etapas" displayName="Etapas" ref="N3:P11" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{718782BA-4D9D-4262-AF8F-6B1ECEEF5757}" name="Etapas" displayName="Etapas" ref="N3:P11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="N3:P11" xr:uid="{39F564CB-E68E-4A1E-BF25-D7EB36FBB3BF}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{A23CCE12-7161-41C0-98C3-31EF28C5956D}" name="Etapa" dataDxfId="14"/>
-    <tableColumn id="1" xr3:uid="{4DC39B4C-8818-4FD7-9DAF-592572E00436}" name="Ativ." dataDxfId="13">
+    <tableColumn id="2" xr3:uid="{A23CCE12-7161-41C0-98C3-31EF28C5956D}" name="Etapa" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{4DC39B4C-8818-4FD7-9DAF-592572E00436}" name="Ativ." dataDxfId="6">
       <calculatedColumnFormula>COUNTIF(Atividades[[#All],[Etapa]],Etapas[[#This Row],[Etapa]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8A36D5F4-3E99-4CDC-B523-B68DB72280EF}" name="Descrição" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{8A36D5F4-3E99-4CDC-B523-B68DB72280EF}" name="Descrição" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FE6A6EE0-B6C7-4786-8935-B279A85CF0C1}" name="Root" displayName="Root" ref="N13:P21" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FE6A6EE0-B6C7-4786-8935-B279A85CF0C1}" name="Root" displayName="Root" ref="N13:P21" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="N13:P21" xr:uid="{2950BCD1-8C29-4E88-A13B-3A2AF8470DB5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AC448D7B-2B4D-441C-B133-8C3F67B63162}" name="Root" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{9631FB86-3F4F-445E-B872-DC3E8D07C7E9}" name="Link" dataDxfId="8" dataCellStyle="Hiperlink">
+    <tableColumn id="1" xr3:uid="{AC448D7B-2B4D-441C-B133-8C3F67B63162}" name="Root" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{9631FB86-3F4F-445E-B872-DC3E8D07C7E9}" name="Link" dataDxfId="1" dataCellStyle="Hiperlink">
       <calculatedColumnFormula>HYPERLINK(Root[[#This Row],[Path]],"abrir")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{1944283A-D36F-4432-903B-BAD47201DD5F}" name="Path" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{1944283A-D36F-4432-903B-BAD47201DD5F}" name="Path" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2328,9 +2256,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P138"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6521,332 +6449,332 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C78:C138 C4:C45">
-    <cfRule type="cellIs" dxfId="102" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="105" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42:K43 I86:K86 K77 H4:H18 E43:G45 F46:G46 I44:K47 H41:H47 E47:G47 J49:K49 E51:J60 E49:H50 G50:G60 F61:K67 E50:E67 E69:K72 J68:K68 J73:K76 I80:K83 K79 E80:G86 I84:I85 K84:K85 E87:K90 H80:H90 J91:K93 F92:F93 J112:K114 F112:F114 J126:K126 J136:K136 G137:I137 K137 J138:K138 D1:K2 D4:K4 E105:K111 D6 D8 D10 D12 D14 D16 D18 D20 D22 D24 D26 D28 D30 D32 D34 D36 D38 D40 D42:H42 D44 D46 D48:K48 D50 D52 D54 D56 D58 D60 D62 D64 D66 D68 D70 D72 D74:H74 D76 D78:K78 D80 D82 D84 D86 D88 D90 D92 D94 D96 D98 E94:K101 D100 E137 E127:K130 E132:K133 K131 E115:K119 E121:K125 K120 J102:K102 J104:K104 D139:K1048576 D102 K103 D104 D106 D108 D110 D112 D114 D116 D118 D120 D122 D124 D126 D128 D130 D132 D134 D136 D138 E5:K41">
-    <cfRule type="expression" dxfId="101" priority="102">
+    <cfRule type="expression" dxfId="95" priority="102">
       <formula>$C1="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="expression" dxfId="100" priority="100">
+    <cfRule type="expression" dxfId="94" priority="100">
       <formula>$C42="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43">
-    <cfRule type="expression" dxfId="99" priority="99">
+    <cfRule type="expression" dxfId="93" priority="99">
       <formula>$C43="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74">
-    <cfRule type="expression" dxfId="98" priority="98">
+    <cfRule type="expression" dxfId="92" priority="98">
       <formula>$C74="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J84">
-    <cfRule type="expression" dxfId="97" priority="97">
+    <cfRule type="expression" dxfId="91" priority="97">
       <formula>$C84="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="expression" dxfId="96" priority="96">
+    <cfRule type="expression" dxfId="90" priority="96">
       <formula>$C49="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102:I102">
-    <cfRule type="expression" dxfId="95" priority="88">
+    <cfRule type="expression" dxfId="89" priority="88">
       <formula>$C102="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104:I104">
-    <cfRule type="expression" dxfId="94" priority="87">
+    <cfRule type="expression" dxfId="88" priority="87">
       <formula>$C104="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H104">
-    <cfRule type="expression" dxfId="93" priority="86">
+    <cfRule type="expression" dxfId="87" priority="86">
       <formula>$C104="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="cellIs" dxfId="92" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="83" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J77">
-    <cfRule type="expression" dxfId="91" priority="82">
+    <cfRule type="expression" dxfId="85" priority="82">
       <formula>$C77="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="expression" dxfId="90" priority="80">
+    <cfRule type="expression" dxfId="84" priority="80">
       <formula>$C46="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50:J60">
-    <cfRule type="expression" dxfId="89" priority="79">
+    <cfRule type="expression" dxfId="83" priority="79">
       <formula>$C50="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50:I60">
-    <cfRule type="expression" dxfId="88" priority="78">
+    <cfRule type="expression" dxfId="82" priority="78">
       <formula>$C50="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50:K60">
-    <cfRule type="expression" dxfId="87" priority="77">
+    <cfRule type="expression" dxfId="81" priority="77">
       <formula>$C50="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73:H73">
-    <cfRule type="expression" dxfId="86" priority="73">
+    <cfRule type="expression" dxfId="80" priority="73">
       <formula>$C73="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73">
-    <cfRule type="expression" dxfId="85" priority="72">
+    <cfRule type="expression" dxfId="79" priority="72">
       <formula>$C73="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77:F77 H77">
-    <cfRule type="expression" dxfId="84" priority="69">
+    <cfRule type="expression" dxfId="78" priority="69">
       <formula>$C77="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77">
-    <cfRule type="expression" dxfId="83" priority="68">
+    <cfRule type="expression" dxfId="77" priority="68">
       <formula>$C77="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68:I68">
-    <cfRule type="expression" dxfId="82" priority="67">
+    <cfRule type="expression" dxfId="76" priority="67">
       <formula>$C68="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="cellIs" dxfId="81" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="66" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75:H75 F75:F78">
-    <cfRule type="expression" dxfId="80" priority="65">
+    <cfRule type="expression" dxfId="74" priority="65">
       <formula>$C75="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="expression" dxfId="79" priority="64">
+    <cfRule type="expression" dxfId="73" priority="64">
       <formula>$C75="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule type="cellIs" dxfId="78" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="62" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76:H76">
-    <cfRule type="expression" dxfId="77" priority="61">
+    <cfRule type="expression" dxfId="71" priority="61">
       <formula>$C76="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I76">
-    <cfRule type="expression" dxfId="76" priority="60">
+    <cfRule type="expression" dxfId="70" priority="60">
       <formula>$C76="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77">
-    <cfRule type="expression" dxfId="75" priority="59">
+    <cfRule type="expression" dxfId="69" priority="59">
       <formula>$C77="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79:J79">
-    <cfRule type="expression" dxfId="74" priority="58">
+    <cfRule type="expression" dxfId="68" priority="58">
       <formula>$C79="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93:I93">
-    <cfRule type="expression" dxfId="73" priority="56">
+    <cfRule type="expression" dxfId="67" priority="56">
       <formula>$C93="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91:H91 F91:F93">
-    <cfRule type="expression" dxfId="72" priority="53">
+    <cfRule type="expression" dxfId="66" priority="53">
       <formula>$C91="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I91">
-    <cfRule type="expression" dxfId="71" priority="52">
+    <cfRule type="expression" dxfId="65" priority="52">
       <formula>$C91="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92:H92">
-    <cfRule type="expression" dxfId="70" priority="51">
+    <cfRule type="expression" dxfId="64" priority="51">
       <formula>$C92="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I92">
-    <cfRule type="expression" dxfId="69" priority="50">
+    <cfRule type="expression" dxfId="63" priority="50">
       <formula>$C92="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114:F114 H114">
-    <cfRule type="expression" dxfId="68" priority="47">
+    <cfRule type="expression" dxfId="62" priority="47">
       <formula>$C114="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I114">
-    <cfRule type="expression" dxfId="67" priority="46">
+    <cfRule type="expression" dxfId="61" priority="46">
       <formula>$C114="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112:H112">
-    <cfRule type="expression" dxfId="66" priority="45">
+    <cfRule type="expression" dxfId="60" priority="45">
       <formula>$C112="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I112">
-    <cfRule type="expression" dxfId="65" priority="44">
+    <cfRule type="expression" dxfId="59" priority="44">
       <formula>$C112="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113:H113">
-    <cfRule type="expression" dxfId="64" priority="43">
+    <cfRule type="expression" dxfId="58" priority="43">
       <formula>$C113="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I113">
-    <cfRule type="expression" dxfId="63" priority="42">
+    <cfRule type="expression" dxfId="57" priority="42">
       <formula>$C113="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G114">
-    <cfRule type="expression" dxfId="62" priority="41">
+    <cfRule type="expression" dxfId="56" priority="41">
       <formula>$C114="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J85">
-    <cfRule type="expression" dxfId="61" priority="40">
+    <cfRule type="expression" dxfId="55" priority="40">
       <formula>$C85="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J135:K135 E134:K134">
-    <cfRule type="expression" dxfId="60" priority="39">
+    <cfRule type="expression" dxfId="54" priority="39">
       <formula>$C134="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135:I135">
-    <cfRule type="expression" dxfId="59" priority="38">
+    <cfRule type="expression" dxfId="53" priority="38">
       <formula>$C135="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H135">
-    <cfRule type="expression" dxfId="58" priority="37">
+    <cfRule type="expression" dxfId="52" priority="37">
       <formula>$C135="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F126">
-    <cfRule type="expression" dxfId="57" priority="36">
+    <cfRule type="expression" dxfId="51" priority="36">
       <formula>$C126="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E126:I126">
-    <cfRule type="expression" dxfId="56" priority="35">
+    <cfRule type="expression" dxfId="50" priority="35">
       <formula>$C126="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F126">
-    <cfRule type="expression" dxfId="55" priority="34">
+    <cfRule type="expression" dxfId="49" priority="34">
       <formula>$C126="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F136">
-    <cfRule type="expression" dxfId="54" priority="33">
+    <cfRule type="expression" dxfId="48" priority="33">
       <formula>$C136="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136:I136">
-    <cfRule type="expression" dxfId="53" priority="32">
+    <cfRule type="expression" dxfId="47" priority="32">
       <formula>$C136="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F136">
-    <cfRule type="expression" dxfId="52" priority="31">
+    <cfRule type="expression" dxfId="46" priority="31">
       <formula>$C136="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F137">
-    <cfRule type="expression" dxfId="51" priority="30">
+    <cfRule type="expression" dxfId="45" priority="30">
       <formula>$C137="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F137">
-    <cfRule type="expression" dxfId="50" priority="29">
+    <cfRule type="expression" dxfId="44" priority="29">
       <formula>$C137="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F137">
-    <cfRule type="expression" dxfId="49" priority="28">
+    <cfRule type="expression" dxfId="43" priority="28">
       <formula>$C137="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J137">
-    <cfRule type="expression" dxfId="48" priority="27">
+    <cfRule type="expression" dxfId="42" priority="27">
       <formula>$C137="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F138">
-    <cfRule type="expression" dxfId="47" priority="26">
+    <cfRule type="expression" dxfId="41" priority="26">
       <formula>$C138="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E138:I138">
-    <cfRule type="expression" dxfId="46" priority="25">
+    <cfRule type="expression" dxfId="40" priority="25">
       <formula>$C138="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F138">
-    <cfRule type="expression" dxfId="45" priority="24">
+    <cfRule type="expression" dxfId="39" priority="24">
       <formula>$C138="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="44" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="23" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:K3 D5 D7 D9 D11 D13 D15 D17 D19 D21 D23 D25 D27 D29 D31 D33 D35 D37 D39 D41 D43 D45 D47 D49 D51 D53 D55 D57 D59 D61 D63 D65 D67 D69 D71 D73 D75 D77 D79 D81 D83 D85 D87 D89 D91 D93 D95 D97 D99 D101 D103 D105 D107 D109 D111 D113 D115 D117 D119 D121 D123 D125 D127 D129 D131 D133 D135 D137">
-    <cfRule type="expression" dxfId="43" priority="22">
+    <cfRule type="expression" dxfId="37" priority="22">
       <formula>$C3="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C74">
-    <cfRule type="cellIs" dxfId="42" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="21" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E131:J131">
-    <cfRule type="expression" dxfId="41" priority="19">
+    <cfRule type="expression" dxfId="35" priority="19">
       <formula>$C131="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120:J120">
-    <cfRule type="expression" dxfId="40" priority="18">
+    <cfRule type="expression" dxfId="34" priority="18">
       <formula>$C120="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103:J103">
-    <cfRule type="expression" dxfId="39" priority="17">
+    <cfRule type="expression" dxfId="33" priority="17">
       <formula>$C103="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51:C68">
-    <cfRule type="cellIs" dxfId="33" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="11" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62:C68">
-    <cfRule type="cellIs" dxfId="32" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6856,37 +6784,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
